--- a/早坂大輝/履歴書/11_早坂大輝_履歴書.xlsx
+++ b/早坂大輝/履歴書/11_早坂大輝_履歴書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\吉田学園情報ビジネス専門学校_早坂大輝\履歴書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>年</t>
   </si>
@@ -275,9 +275,9 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>御社は、多くのジャンルのゲームやプラットフォームがあり、幅広いファンを獲得しています。</t>
+    <t>貴社は、多くのジャンルのゲームやプラットフォームがあり、幅広いファンを獲得しています。</t>
     <rPh sb="0" eb="2">
-      <t>オンシャ</t>
+      <t>キシャ</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>オオ</t>
@@ -291,7 +291,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>そのため、自分の携わりたいジャンルにも強みがあるので御社を志望させていただきました。</t>
+    <t>そのため、自分の携わりたいジャンルにも強みがあるので貴社を志望させていただきました。</t>
     <rPh sb="5" eb="7">
       <t>ジブン</t>
     </rPh>
@@ -302,7 +302,7 @@
       <t>ツヨ</t>
     </rPh>
     <rPh sb="26" eb="28">
-      <t>オンシャ</t>
+      <t>キシャ</t>
     </rPh>
     <rPh sb="29" eb="31">
       <t>シボウ</t>
@@ -310,118 +310,162 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>私は、ゲームを昔から楽しませていただいたので、今度は自分が提供する側になり、</t>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
+    <t>自分は小学生の頃からゲームが好きで遊んでいて、この仕事に携わりたいと思っていました。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショウガクセイ</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>ムカシ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コンド</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ガワ</t>
+      <t>コロ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タズサ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>数多くの皆様にゲームの楽しさを知っていただき、今後の豊かな時間を提供したいです。</t>
+    <t>なので、貴社に入りこの経験を活かし、より多くのファンを集め、より良い環境を作り上げて</t>
+    <rPh sb="4" eb="6">
+      <t>キシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>いきたいと考えております。</t>
+    <rPh sb="5" eb="6">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>集団での作業やコミュニケーション能力の向上にも繋がるいい経験となりました。</t>
     <rPh sb="0" eb="2">
-      <t>カズオオ</t>
+      <t>シュウダン</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>ミナサマ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コンゴ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ユタ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>テイキョウ</t>
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケイケン</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>学校では、C言語やDirectXを使用しゲームの製作や、チームによる制作、発表を経験し、</t>
+    <t>学校では、個人の制作だけではなく、チームによる制作や、発表を経験しました。</t>
     <rPh sb="0" eb="2">
       <t>ガッコウ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="5" eb="7">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>セイサク</t>
     </rPh>
-    <rPh sb="34" eb="36">
+    <rPh sb="23" eb="25">
       <t>セイサク</t>
     </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="27" eb="29">
       <t>ハッピョウ</t>
     </rPh>
-    <rPh sb="40" eb="42">
+    <rPh sb="30" eb="32">
       <t>ケイケン</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>自分が苦手だった集団作業やコミュニケーション能力の向上にもつながりました。</t>
+    <t>発表の場では、先輩や同級生に意見やアドバイスをもらったりし、その他にも、</t>
     <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センパイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ドウキュウセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イケン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>学校で開催されているイベントに積極的に参加することで、自分が昔から苦手としていた、</t>
+    <rPh sb="0" eb="2">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
       <t>ジブン</t>
     </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="30" eb="31">
+      <t>ムカシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
       <t>ニガテ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュウダン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>なので、御社でもチームなどでの製作にもより貢献していきたいと考えています。</t>
-    <rPh sb="4" eb="6">
-      <t>オンシャ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コウケン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -430,7 +474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -526,6 +570,11 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1337,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1442,6 +1491,249 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1488,247 +1780,51 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1767,87 +1863,52 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2173,22 +2234,22 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.5" customHeight="1"/>
     <row r="2" spans="2:17" ht="19.5" customHeight="1">
-      <c r="P2" s="74" t="s">
+      <c r="P2" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="17.100000000000001" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="P3" s="75"/>
+      <c r="C3" s="30"/>
+      <c r="P3" s="28"/>
     </row>
     <row r="4" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="16"/>
       <c r="J4" s="14" t="s">
         <v>13</v>
@@ -2201,124 +2262,124 @@
       <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="75"/>
+      <c r="P4" s="28"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="83"/>
-      <c r="P5" s="75"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="2:17" ht="13.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86"/>
-      <c r="P6" s="75"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="39"/>
+      <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:17" ht="23.4" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="88"/>
-      <c r="P7" s="75"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
+      <c r="P7" s="28"/>
     </row>
     <row r="8" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="97" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="95"/>
-      <c r="H8" s="99" t="s">
+      <c r="G8" s="48"/>
+      <c r="H8" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="97" t="s">
+      <c r="I8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="95" t="s">
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="103" t="s">
+      <c r="N8" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="75"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" spans="2:17" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B9" s="91"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="104"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" spans="2:17" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="70" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="72"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="63"/>
     </row>
     <row r="11" spans="2:17" ht="16.5" customHeight="1">
       <c r="B11" s="3" t="s">
@@ -2327,82 +2388,82 @@
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="65"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="70"/>
     </row>
     <row r="12" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="56"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="75"/>
     </row>
     <row r="13" spans="2:17" ht="16.5" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="65"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="70"/>
     </row>
     <row r="14" spans="2:17" ht="16.5" customHeight="1">
       <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="60" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="56"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="75"/>
     </row>
     <row r="15" spans="2:17" ht="16.5" customHeight="1">
       <c r="B15" s="12" t="s">
@@ -2411,58 +2472,58 @@
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49" t="s">
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="82"/>
     </row>
     <row r="16" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B16" s="54"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="56"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="75"/>
     </row>
     <row r="17" spans="2:17" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="43"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="89"/>
     </row>
     <row r="18" spans="2:17" ht="12" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:17" ht="15.9" customHeight="1">
@@ -2472,238 +2533,238 @@
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="46"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="92"/>
     </row>
     <row r="20" spans="2:17" ht="26.1" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="29"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="95"/>
     </row>
     <row r="21" spans="2:17" ht="26.1" customHeight="1">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="29"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="95"/>
     </row>
     <row r="22" spans="2:17" ht="26.1" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="29"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="95"/>
     </row>
     <row r="23" spans="2:17" ht="26.1" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="29"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="95"/>
     </row>
     <row r="24" spans="2:17" ht="26.1" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="29"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95"/>
     </row>
     <row r="25" spans="2:17" ht="26.1" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="29"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="95"/>
     </row>
     <row r="26" spans="2:17" ht="26.1" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="29"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="95"/>
     </row>
     <row r="27" spans="2:17" ht="26.1" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="29"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="95"/>
     </row>
     <row r="28" spans="2:17" ht="26.1" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="29"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="95"/>
     </row>
     <row r="29" spans="2:17" ht="26.1" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="29"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="95"/>
     </row>
     <row r="30" spans="2:17" ht="26.1" customHeight="1">
       <c r="B30" s="17"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="29"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="95"/>
     </row>
     <row r="31" spans="2:17" ht="26.1" customHeight="1">
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="35"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="101"/>
     </row>
     <row r="32" spans="2:17" ht="26.1" customHeight="1">
       <c r="B32" s="9" t="s">
@@ -2712,42 +2773,42 @@
       <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="38"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="104"/>
     </row>
     <row r="33" spans="2:17" ht="26.1" customHeight="1">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="29"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="95"/>
     </row>
     <row r="34" spans="2:17" ht="26.1" customHeight="1">
       <c r="B34" s="9" t="s">
@@ -2756,22 +2817,22 @@
       <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="95"/>
     </row>
     <row r="35" spans="2:17" ht="26.1" customHeight="1" thickBot="1">
       <c r="B35" s="25" t="s">
@@ -2780,25 +2841,60 @@
       <c r="C35" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="32"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D33:Q33"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="P2:P8"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="G4:H4"/>
@@ -2814,41 +2910,6 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="D33:Q33"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="D32:Q32"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2863,7 +2924,7 @@
   <dimension ref="B1:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:L29"/>
+      <selection activeCell="B28" sqref="B28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2887,122 +2948,122 @@
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="115"/>
     </row>
     <row r="3" spans="2:12" ht="26.1" customHeight="1">
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="126"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
     </row>
     <row r="4" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="119"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="110"/>
     </row>
     <row r="5" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="119"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="110"/>
     </row>
     <row r="6" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="119"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="110"/>
     </row>
     <row r="7" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="119"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="110"/>
     </row>
     <row r="8" spans="2:12" ht="26.1" customHeight="1">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="119"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="110"/>
     </row>
     <row r="9" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="119"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="110"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B10" s="22"/>
@@ -3018,131 +3079,131 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12" ht="15.9" customHeight="1">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="121"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="112"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="116"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="107"/>
     </row>
     <row r="13" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B13" s="117"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="119"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="110"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="116"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="107"/>
     </row>
     <row r="15" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="119"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="110"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="116"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
     </row>
     <row r="17" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="119"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
     </row>
     <row r="18" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="116"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="107"/>
     </row>
     <row r="19" spans="2:12" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B19" s="105"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="107"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="120"/>
     </row>
     <row r="20" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B20" s="22"/>
@@ -3158,21 +3219,21 @@
       <c r="L20" s="22"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="113"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="126"/>
     </row>
     <row r="22" spans="2:12" ht="26.1" customHeight="1">
       <c r="B22" s="127" t="s">
@@ -3220,23 +3281,23 @@
       <c r="L24" s="132"/>
     </row>
     <row r="25" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="132"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="135"/>
     </row>
     <row r="26" spans="2:12" ht="26.1" customHeight="1">
       <c r="B26" s="130" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C26" s="131"/>
       <c r="D26" s="131"/>
@@ -3250,23 +3311,23 @@
       <c r="L26" s="132"/>
     </row>
     <row r="27" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B27" s="130" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="132"/>
+      <c r="B27" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="135"/>
     </row>
     <row r="28" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B28" s="130" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C28" s="131"/>
       <c r="D28" s="131"/>
@@ -3281,7 +3342,7 @@
     </row>
     <row r="29" spans="2:12" ht="26.1" customHeight="1">
       <c r="B29" s="130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="131"/>
       <c r="D29" s="131"/>
@@ -3295,7 +3356,9 @@
       <c r="L29" s="132"/>
     </row>
     <row r="30" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B30" s="130"/>
+      <c r="B30" s="130" t="s">
+        <v>41</v>
+      </c>
       <c r="C30" s="131"/>
       <c r="D30" s="131"/>
       <c r="E30" s="131"/>
@@ -3308,26 +3371,33 @@
       <c r="L30" s="132"/>
     </row>
     <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B31" s="133"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="135"/>
+      <c r="B31" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:L21"/>
     <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="B27:L27"/>
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="D8:L8"/>
@@ -3336,22 +3406,17 @@
     <mergeCell ref="D5:L5"/>
     <mergeCell ref="D7:L7"/>
     <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B17:L17"/>
     <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="B28:L28"/>
     <mergeCell ref="B29:L29"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B25:L25"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
